--- a/D09/D09_COMUNI.xlsx
+++ b/D09/D09_COMUNI.xlsx
@@ -1,29 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\zy\APEX_23-03-21\D04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\zy\ODCEC_24\D09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9ECFFC-D589-424D-B71F-7116EBBFE2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{536E2307-FB22-4222-9102-FD1BB0EDD9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COMUNE" sheetId="4" r:id="rId1"/>
     <sheet name="PROVINCIA" sheetId="2" r:id="rId2"/>
     <sheet name="COMUNE2" sheetId="5" r:id="rId3"/>
-    <sheet name="COMUNE3" sheetId="8" r:id="rId4"/>
+    <sheet name="COMUNE3" sheetId="10" r:id="rId4"/>
+    <sheet name="PROVINCIA3" sheetId="11" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="41">
   <si>
     <t>COMUNE</t>
   </si>
@@ -140,6 +154,12 @@
   </si>
   <si>
     <t>PROVINCIA_COD</t>
+  </si>
+  <si>
+    <t>PROVINCIA_ID</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -687,7 +707,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -699,6 +719,18 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -758,9 +790,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -798,7 +830,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -904,7 +936,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1046,7 +1078,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1056,7 +1088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
@@ -1428,17 +1460,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1E8B05-5064-456D-9266-191EA17F2F0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49E3E40-6EB1-4A95-BB89-7CAECFF132F8}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1446,104 +1478,268 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
+      <c r="B1" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>34</v>
+      <c r="B2" s="7">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
+      <c r="B3" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
+      <c r="B4" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
+      <c r="B5" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
+      <c r="B6" s="8">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>28</v>
+      <c r="B7" s="8">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>3</v>
+      <c r="B8" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>36</v>
+      <c r="B9" s="8">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
+      <c r="B10" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>20</v>
+      <c r="B11" s="8">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
+      <c r="B12" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="B13" s="9">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91049A9-DF16-491F-9F85-4ED77BD1958F}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>6</v>
+        <v>35</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
